--- a/多语言表格清单.xlsx
+++ b/多语言表格清单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\design_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED433921-5CE9-404F-9B50-BBB42DE21777}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B79AAA-B659-4E13-8E6F-7AEFE961C1CC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>active_cdkey_cfg</t>
   </si>
@@ -255,6 +255,9 @@
   <si>
     <t>coco,Google,ios,vietnam,vietnam_vn,wanba</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_newbie_cfg</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1022,6 +1025,11 @@
         <v>60</v>
       </c>
     </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
